--- a/data/long_dif/P23_3-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_3-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22,39%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21,65%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33,42%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22,91%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25,44%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26,87%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,35; 44,52</t>
+          <t>24,86; 47,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,49; 31,8</t>
+          <t>13,57; 31,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,74; 40,46</t>
+          <t>17,58; 40,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,26; 32,07</t>
+          <t>17,0; 51,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,56; 39,05</t>
+          <t>22,27; 39,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,66; 29,38</t>
+          <t>17,48; 32,27</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13,76; 31,19</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12,06; 35,68</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26,83; 40,75</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17,84; 29,07</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19,07; 33,53</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>17,86; 39,06</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>44,48%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>57,75%</t>
+          <t>57,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>48,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>56,82%</t>
+          <t>35,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>57,28%</t>
+          <t>57,46%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39,95%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>44,91%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>43,54%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>57,67%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>44,13%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>39,95%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,2; 54,88</t>
+          <t>33,01; 55,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,97; 68,01</t>
+          <t>46,97; 68,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,76; 52,16</t>
+          <t>34,74; 63,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,35; 65,43</t>
+          <t>21,33; 53,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,75; 51,78</t>
+          <t>32,9; 52,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,62; 63,62</t>
+          <t>48,37; 66,2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29,55; 50,59</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31,56; 59,45</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36,96; 50,97</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>51,3; 64,17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>34,25; 52,09</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30,02; 50,48</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>18,3%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>37,66%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>33,44%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23,04%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19,42%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>30,43%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>33,18%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,64; 31,89</t>
+          <t>12,69; 29,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,54; 29,44</t>
+          <t>13,4; 30,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,29; 35,31</t>
+          <t>12,53; 37,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,19; 26,57</t>
+          <t>19,24; 49,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,41; 31,19</t>
+          <t>18,4; 35,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,85; 25,38</t>
+          <t>12,3; 26,2</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>27,95; 49,06</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>21,37; 47,42</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17,89; 29,82</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14,25; 25,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>23,66; 39,9</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>24,64; 43,58</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,61; 40,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,58; 49,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,77; 39,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,67; 34,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,14; 37,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,01; 40,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>41,01%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>26,79%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28,05%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21,38%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29,1%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31,83%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24,93%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29,38%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,45; 47,23</t>
+          <t>19,6; 38,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28,12; 46,62</t>
+          <t>27,17; 52,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,69; 49,8</t>
+          <t>12,45; 33,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,6; 47,88</t>
+          <t>18,35; 60,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,61; 46,13</t>
+          <t>22,07; 38,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,21; 45,94</t>
+          <t>20,96; 33,16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21,21; 36,67</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13,27; 29,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23,04; 35,21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25,99; 39,88</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17,78; 31,5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21,04; 43,48</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>37,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>41,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>41,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>41,36%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>44,24%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>50,25%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>39,07%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>39,03%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42,73%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>36,45%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,51; 48,7</t>
+          <t>26,68; 49,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,76; 35,78</t>
+          <t>26,4; 45,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,59; 36,75</t>
+          <t>27,01; 64,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,49; 38,47</t>
+          <t>10,45; 39,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,44; 40,33</t>
+          <t>32,14; 49,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,35; 35,13</t>
+          <t>34,62; 49,01</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>34,82; 53,19</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>40,66; 61,68</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>31,82; 46,71</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>32,5; 44,72</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>34,13; 55,82</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>26,1; 46,42</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>36,23%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>39,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>31,85%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>27,72%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28,38%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31,82%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>29,15%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>32,34%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>34,17%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,29; 42,01</t>
+          <t>24,98; 50,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,18; 38,58</t>
+          <t>18,47; 37,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,09; 39,87</t>
+          <t>21,18; 53,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,23; 34,64</t>
+          <t>21,4; 63,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,96; 38,9</t>
+          <t>21,08; 37,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,26; 34,35</t>
+          <t>25,21; 38,15</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20,67; 37,44</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18,92; 37,39</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25,06; 42,6</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>24,12; 35,53</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>24,0; 42,84</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23,55; 49,33</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>39,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30,88; 50,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,05; 47,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,49; 42,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>35,63; 47,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>32,55; 43,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,43; 44,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>34,73%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>31,03%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>35,3%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>32,47%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>29,19%</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>28,65%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>30,09%</t>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>35,18%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>28,29%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>33,55%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>29,72%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>34,65%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>32,04%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,7; 34,48</t>
+          <t>26,73; 43,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>24,46; 40,61</t>
+          <t>23,22; 39,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>25,58; 37,06</t>
+          <t>25,45; 43,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23,98; 34,89</t>
+          <t>26,82; 45,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>23,74; 33,76</t>
+          <t>26,01; 38,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,55; 35,33</t>
+          <t>24,15; 35,07</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>28,73; 41,92</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>20,45; 37,91</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>28,79; 39,0</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>25,67; 34,9</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>29,41; 40,33</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>25,25; 38,68</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>35,58%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>39,53%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>36,71%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>41,51%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>38,25%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>41,47%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>37,63%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>40,54%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>35,46%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>38,92%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>29,61; 43,26</t>
+          <t>30,46; 50,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>25,0; 38,55</t>
+          <t>31,19; 46,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>20,17; 31,93</t>
+          <t>25,01; 40,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>27,28; 39,14</t>
+          <t>27,24; 47,5</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>26,44; 35,79</t>
+          <t>30,35; 43,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>28,14; 36,74</t>
+          <t>36,15; 47,17</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>32,31; 44,39</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>32,2; 50,03</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>32,05; 44,1</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>35,62; 45,15</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>30,56; 40,65</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>32,39; 45,98</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>26,18%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>42,29%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>29,3%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>26,56%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>30,23%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>28,82%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>29,74%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>29,88%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>29,03%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>36,22; 51,78</t>
+          <t>18,65; 34,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>35,46; 48,85</t>
+          <t>23,89; 39,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>29,62; 42,41</t>
+          <t>25,42; 41,16</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>33,99; 45,43</t>
+          <t>18,81; 39,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>34,41; 44,15</t>
+          <t>25,5; 38,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>36,4; 45,09</t>
+          <t>24,5; 34,76</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>21,08; 32,34</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>21,86; 39,43</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>23,79; 33,6</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>25,63; 35,13</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>25,33; 34,74</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>22,86; 36,07</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>16,22; 27,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>21,17; 32,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>32,11; 44,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>22,43; 32,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>25,71; 34,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,36; 31,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>35,3%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>33,17%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>27,83%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>33,28%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>30,45%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>32,22%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>28,96%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>32,69%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>24,09; 39,74</t>
+          <t>28,5; 42,93</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>17,47; 29,7</t>
+          <t>24,41; 39,15</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>21,02; 35,9</t>
+          <t>21,87; 37,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>21,92; 34,94</t>
+          <t>22,92; 42,64</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>24,87; 36,54</t>
+          <t>20,17; 31,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>21,32; 30,39</t>
+          <t>27,77; 38,99</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>22,27; 34,31</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>24,84; 42,01</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>25,63; 35,31</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>27,85; 37,32</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 33,86</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>26,16; 38,85</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>37,6%</t>
+          <t>43,57%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>42,67%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>45,86%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>48,29%</t>
+          <t>38,43%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>49,0%</t>
+          <t>39,38%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>35,93%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>38,67%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>39,74%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>40,98%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>39,39%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>38,55%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>29,87; 47,2</t>
+          <t>35,53; 51,56</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>42,2; 56,75</t>
+          <t>35,97; 50,03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>38,19; 54,84</t>
+          <t>35,12; 54,51</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>40,82; 55,0</t>
+          <t>28,57; 49,67</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>35,95; 48,6</t>
+          <t>29,84; 42,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>44,14; 54,61</t>
+          <t>33,65; 44,95</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>29,48; 42,85</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>29,07; 47,84</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>34,96; 45,1</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>36,61; 45,59</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>34,24; 46,33</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>31,62; 46,0</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>27,46%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>36,23%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>28,05%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>29,8%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>26,8%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>31,65%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>28,77%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>23,56; 38,47</t>
+          <t>15,82; 27,66</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>20,69; 33,82</t>
+          <t>20,44; 32,38</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>19,11; 32,54</t>
+          <t>20,44; 34,7</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>17,97; 29,99</t>
+          <t>21,71; 39,63</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>22,86; 33,58</t>
+          <t>32,07; 44,35</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>21,3; 29,96</t>
+          <t>22,66; 32,69</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>29,52; 43,02</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>20,37; 36,7</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>25,25; 34,44</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>23,22; 30,83</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>26,53; 36,78</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>22,27; 35,39</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>18,16; 44,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>13,03; 28,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>18,98; 37,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>18,31; 33,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>20,83; 36,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>17,85; 28,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>46,55%</t>
+          <t>35,6%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>45,62%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>28,0%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>21,62%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>23,19%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>30,0%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>25,61%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>27,46%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>28,84%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>33,86; 66,01</t>
+          <t>23,82; 39,72</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>31,04; 52,49</t>
+          <t>17,5; 29,64</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>35,11; 57,19</t>
+          <t>24,7; 42,85</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>36,59; 55,7</t>
+          <t>25,42; 47,59</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>37,24; 55,82</t>
+          <t>20,58; 35,14</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>37,5; 50,52</t>
+          <t>21,83; 35,17</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>14,11; 29,18</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 31,51</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>24,93; 35,7</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>21,48; 30,44</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>21,95; 33,34</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>22,68; 35,76</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>38,23%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>42,58%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>40,39%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>32,27%</t>
+          <t>47,78%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>50,16%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>46,32%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>41,43%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>48,81%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>46,41%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>43,62%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>14,32; 34,25</t>
+          <t>29,25; 47,47</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>28,39; 48,54</t>
+          <t>43,31; 57,69</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>19,87; 37,13</t>
+          <t>32,88; 51,82</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>19,24; 41,64</t>
+          <t>29,29; 53,05</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>19,83; 33,1</t>
+          <t>37,17; 54,76</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>25,93; 40,01</t>
+          <t>41,04; 55,01</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>40,67; 59,62</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>38,01; 57,63</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>35,93; 47,69</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>44,5; 54,78</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>39,65; 53,52</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>36,05; 50,25</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>24,22%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>28,22%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>30,49%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>28,56%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>25,58%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>26,13%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>27,54%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>29,61; 36,92</t>
+          <t>23,28; 38,62</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>24,26; 31,56</t>
+          <t>19,74; 33,42</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>26,24; 32,56</t>
+          <t>16,58; 33,53</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>25,36; 30,87</t>
+          <t>15,76; 34,73</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>28,59; 33,54</t>
+          <t>18,97; 33,95</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>25,78; 30,32</t>
+          <t>18,39; 30,08</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>20,54; 36,41</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>21,96; 38,82</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>23,63; 33,82</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>21,11; 29,74</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>20,64; 32,05</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>21,59; 34,15</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>45,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>44,66%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>36,44; 44,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>40,08; 47,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>37,11; 44,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>42,26; 48,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>37,68; 43,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>42,42; 47,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>25,87%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>21,73%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>21,9%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>29,03%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>23,62%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>18,75%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>26,7%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>23,07; 30,76</t>
+          <t>19,19; 41,99</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>24,93; 31,37</t>
+          <t>13,47; 28,21</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>27,37; 33,43</t>
+          <t>7,36; 25,0</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>24,4; 29,94</t>
+          <t>20,59; 49,92</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>26,08; 30,79</t>
+          <t>20,58; 39,35</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>25,37; 29,61</t>
+          <t>19,83; 33,64</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 31,96</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>12,51; 34,01</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>22,6; 37,79</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>18,94; 29,21</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>13,06; 25,98</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>18,64; 36,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>45,17%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>41,62%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>48,91%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>37,68%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>42,5%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>47,0%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>43,18%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>43,93%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>43,6%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>44,82%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>45,68%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>41,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>33,76; 61,23</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>31,54; 52,63</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>36,56; 62,09</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>24,48; 53,18</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>32,87; 52,7</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>39,3; 55,65</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>33,12; 54,31</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>30,18; 59,32</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>35,89; 52,17</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>37,79; 50,77</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>36,58; 53,61</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>30,71; 52,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>25,02%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>38,04%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>36,19%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>28,56%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>29,0%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>27,13%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>35,1%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>34,17%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>27,37%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>31,56%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>35,57%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>31,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>16,02; 35,69</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>28,93; 48,36</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>23,89; 48,24</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>16,96; 42,45</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>21,66; 37,63</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>19,49; 36,42</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>25,51; 45,89</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>21,61; 51,16</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>21,13; 34,11</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>26,01; 39,72</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>28,2; 43,18</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>21,36; 43,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>32,91%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>27,69%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>34,3%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>29,31%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>28,12%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>25,16%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>31,06%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>28,03%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>27,22%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>29,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>28,82; 36,91</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>24,77; 31,84</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>23,97; 32,06</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>28,82; 40,12</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>26,2; 32,66</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>25,51; 30,75</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>23,48; 29,75</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>21,43; 28,99</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>28,63; 33,71</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>25,92; 30,35</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>24,94; 29,99</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>26,34; 33,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>40,87%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>44,21%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>42,08%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>35,19%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>40,29%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>45,25%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>41,39%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>44,09%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>40,57%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>44,75%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>41,73%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>39,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>37,05; 45,44</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>40,6; 47,84</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>37,1; 47,67</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>29,95; 41,14</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>37,0; 43,91</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>42,19; 48,22</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>38,12; 45,24</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>39,63; 48,99</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>37,88; 43,32</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>42,15; 46,94</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>38,85; 45,45</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>35,98; 43,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>26,22%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>30,23%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>30,52%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>30,4%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>26,63%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>31,85%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>30,75%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>28,38%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>27,23%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>31,06%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>30,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>22,89; 30,79</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>24,77; 31,49</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>25,93; 35,05</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>25,77; 37,31</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>27,55; 33,32</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>24,25; 29,54</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>28,34; 35,21</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>26,74; 35,08</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>25,89; 30,99</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>25,24; 29,61</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>28,05; 33,6</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>27,18; 35,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_3-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_3-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
